--- a/resource/PGx_NP_bin_seting_table_new_form.xlsx
+++ b/resource/PGx_NP_bin_seting_table_new_form.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,55 +456,60 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>gene</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>marker</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>marker_label</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>is_forward</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>direction</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>base</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>basetype</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>color</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>min_height</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>min_bin</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>max_bin</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>binrange</t>
         </is>
@@ -533,47 +538,52 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CYP2D6_001</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>CYP2D6 *14</t>
         </is>
       </c>
-      <c r="G2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>1000</v>
-      </c>
       <c r="M2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N2" t="n">
         <v>27</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>36</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -600,47 +610,52 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CYP2D6_001</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>CYP2D6 *14</t>
         </is>
       </c>
-      <c r="G3" t="b">
+      <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1000</v>
-      </c>
       <c r="M3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N3" t="n">
         <v>25</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>35</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -667,47 +682,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>CYP2D6_002</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>CYP2D6 *10B</t>
         </is>
       </c>
-      <c r="G4" t="b">
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1000</v>
-      </c>
       <c r="M4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N4" t="n">
         <v>28</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>38</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,47 +754,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>CYP2D6_002</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>CYP2D6 *10B</t>
         </is>
       </c>
-      <c r="G5" t="b">
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1000</v>
-      </c>
       <c r="M5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N5" t="n">
         <v>31</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>37</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -801,47 +826,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>CYP2D6_003</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>CYP2D6 *49</t>
         </is>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1000</v>
-      </c>
       <c r="M6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N6" t="n">
         <v>39</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>45</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -868,47 +898,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>CYP2D6_003</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>CYP2D6 *49</t>
         </is>
       </c>
-      <c r="G7" t="b">
+      <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1000</v>
-      </c>
       <c r="M7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N7" t="n">
         <v>37</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>44</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>7</v>
       </c>
     </row>
@@ -935,47 +970,52 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>CYP2D6_004</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>CYP2D6 *21</t>
         </is>
       </c>
-      <c r="G8" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1000</v>
-      </c>
       <c r="M8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N8" t="n">
         <v>42</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>49</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1002,47 +1042,52 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>CYP2D6_004</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>CYP2D6 *21</t>
         </is>
       </c>
-      <c r="G9" t="b">
+      <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1000</v>
-      </c>
       <c r="M9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N9" t="n">
         <v>41</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>45</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1069,47 +1114,52 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>CYP2D6_005</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>CYP2D6 *41</t>
         </is>
       </c>
-      <c r="G10" t="b">
+      <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1000</v>
-      </c>
       <c r="M10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N10" t="n">
         <v>47</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>50</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1136,47 +1186,52 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>CYP2D6_005</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>CYP2D6 *41</t>
         </is>
       </c>
-      <c r="G11" t="b">
+      <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1000</v>
-      </c>
       <c r="M11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N11" t="n">
         <v>45.1</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>50</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>4.899999999999999</v>
       </c>
     </row>
@@ -1203,47 +1258,52 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>CYP2D6_006</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>CYP2D6 *52</t>
         </is>
       </c>
-      <c r="G12" t="b">
+      <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1000</v>
-      </c>
       <c r="M12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N12" t="n">
         <v>50</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>55</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1270,47 +1330,52 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>CYP2D6_006</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>CYP2D6 *52</t>
         </is>
       </c>
-      <c r="G13" t="b">
+      <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1000</v>
-      </c>
       <c r="M13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N13" t="n">
         <v>50</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>53</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1337,47 +1402,52 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>CYP2D6_007</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>CYP2D6 *18</t>
         </is>
       </c>
-      <c r="G14" t="b">
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1000</v>
-      </c>
       <c r="M14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N14" t="n">
         <v>53</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>57</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1404,47 +1474,52 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>CYP2D6_007</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>CYP2D6 *18</t>
         </is>
       </c>
-      <c r="G15" t="b">
+      <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1000</v>
-      </c>
       <c r="M15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N15" t="n">
         <v>55.1</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>59</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>3.899999999999999</v>
       </c>
     </row>
@@ -1471,47 +1546,52 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>CYP2D6_008</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>CYP2D6 *2</t>
         </is>
       </c>
-      <c r="G16" t="b">
+      <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1000</v>
-      </c>
       <c r="M16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N16" t="n">
         <v>57.1</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>62</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>4.899999999999999</v>
       </c>
     </row>
@@ -1538,47 +1618,52 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>CYP2D6_008</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>CYP2D6 *2</t>
         </is>
       </c>
-      <c r="G17" t="b">
+      <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1000</v>
-      </c>
       <c r="M17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N17" t="n">
         <v>59</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>63</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1605,47 +1690,52 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>CYP2D6_009</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>CYP2D6 *60</t>
         </is>
       </c>
-      <c r="G18" t="b">
+      <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1000</v>
-      </c>
       <c r="M18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N18" t="n">
         <v>65</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>68</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1672,47 +1762,52 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>CYP2D6_009</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>CYP2D6 *60</t>
         </is>
       </c>
-      <c r="G19" t="b">
+      <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1000</v>
-      </c>
       <c r="M19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N19" t="n">
         <v>63</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>68</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1739,47 +1834,52 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>CYP2D6_010</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>CYP2D6 *5</t>
         </is>
       </c>
-      <c r="G20" t="b">
+      <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1000</v>
-      </c>
       <c r="M20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N20" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>73</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>4.900000000000006</v>
       </c>
     </row>
@@ -1806,47 +1906,52 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>CYP2D6_010</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>CYP2D6 *5</t>
         </is>
       </c>
-      <c r="G21" t="b">
+      <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1000</v>
-      </c>
       <c r="M21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N21" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>73</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>4.900000000000006</v>
       </c>
     </row>
@@ -1873,47 +1978,52 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>CYP2D6_011</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>CYP2D6 *4</t>
         </is>
       </c>
-      <c r="G22" t="b">
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1000</v>
-      </c>
       <c r="M22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N22" t="n">
         <v>31.5</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>35.5</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1940,47 +2050,52 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>CYP2D6_011</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>CYP2D6 *4</t>
         </is>
       </c>
-      <c r="G23" t="b">
+      <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1000</v>
-      </c>
       <c r="M23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N23" t="n">
         <v>30</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>34</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2007,47 +2122,52 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>CYP2D6_012</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>CYP2D6 *3</t>
         </is>
       </c>
-      <c r="G24" t="b">
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1000</v>
-      </c>
       <c r="M24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N24" t="n">
         <v>36</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>38.5</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2074,47 +2194,52 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>CYP2D6_012</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>CYP2D6 *3</t>
         </is>
       </c>
-      <c r="G25" t="b">
+      <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1000</v>
-      </c>
       <c r="M25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N25" t="n">
         <v>36.5</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>38.8</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>2.299999999999997</v>
       </c>
     </row>
@@ -2141,47 +2266,52 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>CYP2D6_013</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>CYP2D6 *17</t>
         </is>
       </c>
-      <c r="G26" t="b">
+      <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1000</v>
-      </c>
       <c r="M26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N26" t="n">
         <v>39</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>43.5</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2208,47 +2338,52 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>CYP2D6_013</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>CYP2D6 *17</t>
         </is>
       </c>
-      <c r="G27" t="b">
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1000</v>
-      </c>
       <c r="M27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N27" t="n">
         <v>37.5</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>45</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -2275,47 +2410,52 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>CYP2D6_014</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>CYP2D6 *9</t>
         </is>
       </c>
-      <c r="G28" t="b">
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1000</v>
-      </c>
       <c r="M28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N28" t="n">
         <v>42</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>46.3</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>4.299999999999997</v>
       </c>
     </row>
@@ -2342,47 +2482,52 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>CYP2D6_014</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>CYP2D6 *9</t>
         </is>
       </c>
-      <c r="G29" t="b">
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1000</v>
-      </c>
       <c r="M29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N29" t="n">
         <v>44.5</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>47</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -2409,47 +2554,52 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>CYP2D6_015</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>CYP2D6 *6</t>
         </is>
       </c>
-      <c r="G30" t="b">
+      <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1000</v>
-      </c>
       <c r="M30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N30" t="n">
         <v>46.5</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>51</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2476,47 +2626,52 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>CYP2D6_015</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>CYP2D6 *6</t>
         </is>
       </c>
-      <c r="G31" t="b">
+      <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1000</v>
-      </c>
       <c r="M31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N31" t="n">
         <v>47.2</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>52</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>4.799999999999997</v>
       </c>
     </row>
@@ -2543,47 +2698,52 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>CYP2D6_016</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>CYP2D6 *29</t>
         </is>
       </c>
-      <c r="G32" t="b">
+      <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1000</v>
-      </c>
       <c r="M32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N32" t="n">
         <v>51</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>58</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2610,47 +2770,52 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>CYP2D6_016</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>CYP2D6 *29</t>
         </is>
       </c>
-      <c r="G33" t="b">
+      <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1000</v>
-      </c>
       <c r="M33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N33" t="n">
         <v>52</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>57</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2677,47 +2842,52 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>CYP2D6_017</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>CYP2D6 *XN</t>
         </is>
       </c>
-      <c r="G34" t="b">
+      <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1000</v>
-      </c>
       <c r="M34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N34" t="n">
         <v>70</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>74</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2744,47 +2914,52 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>CYP2D6</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>CYP2D6_017</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>CYP2D6 *XN</t>
         </is>
       </c>
-      <c r="G35" t="b">
+      <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1000</v>
-      </c>
       <c r="M35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N35" t="n">
         <v>68.5</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>73</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -2811,47 +2986,52 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
+          <t>OPRM1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>OPRM1_001</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>OPRM1 rs1799971</t>
         </is>
       </c>
-      <c r="G36" t="b">
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1000</v>
-      </c>
       <c r="M36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N36" t="n">
         <v>57.5</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>66</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -2878,47 +3058,52 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>OPRM1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>OPRM1_001</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>OPRM1 rs1799971</t>
         </is>
       </c>
-      <c r="G37" t="b">
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1000</v>
-      </c>
       <c r="M37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N37" t="n">
         <v>57</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>65</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2945,47 +3130,52 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>HLA-A_001</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t xml:space="preserve">HLA-A 368G&gt;A </t>
         </is>
       </c>
-      <c r="G38" t="b">
+      <c r="H38" t="b">
         <v>1</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1000</v>
-      </c>
       <c r="M38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N38" t="n">
         <v>36</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>40</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3012,47 +3202,52 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>HLA-A_001</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t xml:space="preserve">HLA-A 368G&gt;A </t>
         </is>
       </c>
-      <c r="G39" t="b">
+      <c r="H39" t="b">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1000</v>
-      </c>
       <c r="M39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N39" t="n">
         <v>35</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>41.5</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -3079,47 +3274,52 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>HLA-A_002</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>HLA-A 954T&gt;C</t>
         </is>
       </c>
-      <c r="G40" t="b">
+      <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1000</v>
-      </c>
       <c r="M40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N40" t="n">
         <v>42</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>45</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3146,47 +3346,52 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>HLA-A_002</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>HLA-A 954T&gt;C</t>
         </is>
       </c>
-      <c r="G41" t="b">
+      <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1000</v>
-      </c>
       <c r="M41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N41" t="n">
         <v>41</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>45</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3213,47 +3418,52 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>HLA-A_003</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>HLA-A 536G&gt;A</t>
         </is>
       </c>
-      <c r="G42" t="b">
+      <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1000</v>
-      </c>
       <c r="M42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N42" t="n">
         <v>43</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>47.5</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3280,47 +3490,52 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>HLA-A_003</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>HLA-A 536G&gt;A</t>
         </is>
       </c>
-      <c r="G43" t="b">
+      <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1000</v>
-      </c>
       <c r="M43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N43" t="n">
         <v>42.5</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>46.4</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>3.899999999999999</v>
       </c>
     </row>
@@ -3347,47 +3562,52 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>HLA-A_004</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>HLA-A 593T&gt;C/A</t>
         </is>
       </c>
-      <c r="G44" t="b">
+      <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1000</v>
-      </c>
       <c r="M44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N44" t="n">
         <v>48</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>53.5</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -3414,47 +3634,52 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
           <t>HLA-A_004</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>HLA-A 593T&gt;C/A</t>
         </is>
       </c>
-      <c r="G45" t="b">
+      <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1000</v>
-      </c>
       <c r="M45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N45" t="n">
         <v>46.5</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>51</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -3481,47 +3706,52 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
+          <t>HLA-A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>HLA-A_004</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>HLA-A 593T&gt;C/A</t>
         </is>
       </c>
-      <c r="G46" t="b">
+      <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1000</v>
-      </c>
       <c r="M46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N46" t="n">
         <v>47</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>52</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3548,47 +3778,52 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>HLA-B_001</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>HLA-B 384C&gt;G</t>
         </is>
       </c>
-      <c r="G47" t="b">
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1000</v>
-      </c>
       <c r="M47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N47" t="n">
         <v>53</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>56.5</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -3615,47 +3850,52 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>HLA-B_001</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>HLA-B 384C&gt;G</t>
         </is>
       </c>
-      <c r="G48" t="b">
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1000</v>
-      </c>
       <c r="M48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N48" t="n">
         <v>52.8</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>56</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>3.200000000000003</v>
       </c>
     </row>
@@ -3682,47 +3922,52 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>HLA-B_002</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>HLA-B 667G&gt;A</t>
         </is>
       </c>
-      <c r="G49" t="b">
+      <c r="H49" t="b">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1000</v>
-      </c>
       <c r="M49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N49" t="n">
         <v>57.3</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>59.5</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>2.200000000000003</v>
       </c>
     </row>
@@ -3749,47 +3994,52 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>HLA-B_002</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>HLA-B 667G&gt;A</t>
         </is>
       </c>
-      <c r="G50" t="b">
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1000</v>
-      </c>
       <c r="M50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N50" t="n">
         <v>56.5</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>59.2</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>2.700000000000003</v>
       </c>
     </row>
@@ -3816,47 +4066,52 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
           <t>HLA-B_003</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>HLA-B 2156A&gt;T</t>
         </is>
       </c>
-      <c r="G51" t="b">
+      <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1000</v>
-      </c>
       <c r="M51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N51" t="n">
         <v>59</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>65</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3883,47 +4138,52 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>HLA-B</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>HLA-B_003</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>HLA-B 2156A&gt;T</t>
         </is>
       </c>
-      <c r="G52" t="b">
+      <c r="H52" t="b">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1000</v>
-      </c>
       <c r="M52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N52" t="n">
         <v>59.7</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>62</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>2.299999999999997</v>
       </c>
     </row>
@@ -3950,47 +4210,52 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
+          <t>CYP2B6</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>CYP2B6_001</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>CYP2B6 *4</t>
         </is>
       </c>
-      <c r="G53" t="b">
+      <c r="H53" t="b">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1000</v>
-      </c>
       <c r="M53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N53" t="n">
         <v>61</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>65</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4017,47 +4282,52 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>CYP2B6</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>CYP2B6_001</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>CYP2B6 *4</t>
         </is>
       </c>
-      <c r="G54" t="b">
+      <c r="H54" t="b">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1000</v>
-      </c>
       <c r="M54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N54" t="n">
         <v>60.5</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>64</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -4084,47 +4354,52 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>CYP2B6</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>CYP2B6_002</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>CYP2B6 *9</t>
         </is>
       </c>
-      <c r="G55" t="b">
+      <c r="H55" t="b">
         <v>0</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1000</v>
-      </c>
       <c r="M55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N55" t="n">
         <v>64.5</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>68</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -4151,47 +4426,52 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>CYP2B6</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>CYP2B6_002</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>CYP2B6 *9</t>
         </is>
       </c>
-      <c r="G56" t="b">
+      <c r="H56" t="b">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1000</v>
-      </c>
       <c r="M56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N56" t="n">
         <v>64.5</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>67</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -4218,47 +4498,52 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>CYP2C19_001</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>CYP2C19 *17</t>
         </is>
       </c>
-      <c r="G57" t="b">
+      <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1000</v>
-      </c>
       <c r="M57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N57" t="n">
         <v>37.5</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>41.2</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>3.700000000000003</v>
       </c>
     </row>
@@ -4285,47 +4570,52 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
           <t>CYP2C19_001</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>CYP2C19 *17</t>
         </is>
       </c>
-      <c r="G58" t="b">
+      <c r="H58" t="b">
         <v>1</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1000</v>
-      </c>
       <c r="M58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N58" t="n">
         <v>37</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>41</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4352,47 +4642,52 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>CYP2C19_002</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>CYP2C19 *2</t>
         </is>
       </c>
-      <c r="G59" t="b">
+      <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1000</v>
-      </c>
       <c r="M59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N59" t="n">
         <v>47.5</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>50.5</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4419,47 +4714,52 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>CYP2C19_002</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>CYP2C19 *2</t>
         </is>
       </c>
-      <c r="G60" t="b">
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1000</v>
-      </c>
       <c r="M60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N60" t="n">
         <v>47</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>50</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4486,47 +4786,52 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>CYP2C19_003</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>CYP2C19 *3</t>
         </is>
       </c>
-      <c r="G61" t="b">
+      <c r="H61" t="b">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1000</v>
-      </c>
       <c r="M61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N61" t="n">
         <v>57</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>60.5</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -4553,47 +4858,52 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>CYP2C19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>CYP2C19_003</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>CYP2C19 *3</t>
         </is>
       </c>
-      <c r="G62" t="b">
+      <c r="H62" t="b">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1000</v>
-      </c>
       <c r="M62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N62" t="n">
         <v>56.5</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>60</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -4620,47 +4930,52 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>CYP2C9_001</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>CYP2C9 *3</t>
         </is>
       </c>
-      <c r="G63" t="b">
+      <c r="H63" t="b">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1000</v>
-      </c>
       <c r="M63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N63" t="n">
         <v>44.3</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>49.2</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>4.900000000000006</v>
       </c>
     </row>
@@ -4687,47 +5002,52 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
           <t>CYP2C9_001</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>CYP2C9 *3</t>
         </is>
       </c>
-      <c r="G64" t="b">
+      <c r="H64" t="b">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1000</v>
-      </c>
       <c r="M64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N64" t="n">
         <v>42</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>46.5</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -4754,47 +5074,52 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>CYP2C9_002</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>CYP2C9 *13</t>
         </is>
       </c>
-      <c r="G65" t="b">
+      <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1000</v>
-      </c>
       <c r="M65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N65" t="n">
         <v>49</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>55</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4821,47 +5146,52 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
           <t>CYP2C9_002</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>CYP2C9 *13</t>
         </is>
       </c>
-      <c r="G66" t="b">
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1000</v>
-      </c>
       <c r="M66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N66" t="n">
         <v>49.5</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>55</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -4888,47 +5218,52 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>CYP2C9_003</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>CYP2C9 *14</t>
         </is>
       </c>
-      <c r="G67" t="b">
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1000</v>
-      </c>
       <c r="M67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N67" t="n">
         <v>51</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>57</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4955,47 +5290,52 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>CYP2C9_003</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>CYP2C9 *14</t>
         </is>
       </c>
-      <c r="G68" t="b">
+      <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1000</v>
-      </c>
       <c r="M68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N68" t="n">
         <v>51.5</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>56.5</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5022,47 +5362,52 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>CYP2C9_004</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>CYP2C9 *2</t>
         </is>
       </c>
-      <c r="G69" t="b">
+      <c r="H69" t="b">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1000</v>
-      </c>
       <c r="M69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N69" t="n">
         <v>66</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>70</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5089,47 +5434,52 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
+          <t>CYP2C9</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
           <t>CYP2C9_004</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>CYP2C9 *2</t>
         </is>
       </c>
-      <c r="G70" t="b">
+      <c r="H70" t="b">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1000</v>
-      </c>
       <c r="M70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N70" t="n">
         <v>67.5</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>71</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -5156,47 +5506,52 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
+          <t>CYP3A4</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>CYP3A4_002</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>CYP3A4 *22</t>
         </is>
       </c>
-      <c r="G71" t="b">
+      <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1000</v>
-      </c>
       <c r="M71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N71" t="n">
         <v>40</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>44.5</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -5223,47 +5578,52 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>CYP3A4</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>CYP3A4_002</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>CYP3A4 *22</t>
         </is>
       </c>
-      <c r="G72" t="b">
+      <c r="H72" t="b">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1000</v>
-      </c>
       <c r="M72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N72" t="n">
         <v>40.5</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>43.5</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5290,47 +5650,52 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
+          <t>CYP3A5</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>CYP3A5_001</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>CYP3A5 *3</t>
         </is>
       </c>
-      <c r="G73" t="b">
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1000</v>
-      </c>
       <c r="M73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N73" t="n">
         <v>31.5</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>40</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>8.5</v>
       </c>
     </row>
@@ -5357,47 +5722,52 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
+          <t>CYP3A5</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>CYP3A5_001</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>CYP3A5 *3</t>
         </is>
       </c>
-      <c r="G74" t="b">
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1000</v>
-      </c>
       <c r="M74" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N74" t="n">
         <v>32</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>39</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5424,47 +5794,52 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
+          <t>ABCB1</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>ABCB1_001</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>ABCB1 rs2032582</t>
         </is>
       </c>
-      <c r="G75" t="b">
+      <c r="H75" t="b">
         <v>1</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1000</v>
-      </c>
       <c r="M75" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N75" t="n">
         <v>56</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>59</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5491,47 +5866,52 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>ABCB1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>ABCB1_001</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>ABCB1 rs2032582</t>
         </is>
       </c>
-      <c r="G76" t="b">
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1000</v>
-      </c>
       <c r="M76" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N76" t="n">
         <v>55</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>58.5</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -5558,47 +5938,52 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>ABCB1</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>ABCB1_001</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>ABCB1 rs2032582</t>
         </is>
       </c>
-      <c r="G77" t="b">
+      <c r="H77" t="b">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1000</v>
-      </c>
       <c r="M77" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N77" t="n">
         <v>55.5</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>58.5</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5625,47 +6010,52 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
+          <t>ABCB1</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
           <t>ABCB1_002</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>ABCB1 rs1045642</t>
         </is>
       </c>
-      <c r="G78" t="b">
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1000</v>
-      </c>
       <c r="M78" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N78" t="n">
         <v>49.2</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>52</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>2.799999999999997</v>
       </c>
     </row>
@@ -5692,47 +6082,52 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>ABCB1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>ABCB1_002</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>ABCB1 rs1045642</t>
         </is>
       </c>
-      <c r="G79" t="b">
+      <c r="H79" t="b">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1000</v>
-      </c>
       <c r="M79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N79" t="n">
         <v>48.5</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>51.5</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5759,47 +6154,52 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>ANKK1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
           <t>ANKK1_001</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>ANKK1 rs1800497</t>
         </is>
       </c>
-      <c r="G80" t="b">
+      <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1000</v>
-      </c>
       <c r="M80" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N80" t="n">
         <v>67</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>72</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5826,47 +6226,52 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
+          <t>ANKK1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>ANKK1_001</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>ANKK1 rs1800497</t>
         </is>
       </c>
-      <c r="G81" t="b">
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1000</v>
-      </c>
       <c r="M81" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N81" t="n">
         <v>67</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>71</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5893,47 +6298,52 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
+          <t>COMT</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>COMT_001</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>COMT rs4680</t>
         </is>
       </c>
-      <c r="G82" t="b">
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1000</v>
-      </c>
       <c r="M82" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N82" t="n">
         <v>44</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>48.8</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>4.799999999999997</v>
       </c>
     </row>
@@ -5960,47 +6370,52 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>COMT</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>COMT_001</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>COMT rs4680</t>
         </is>
       </c>
-      <c r="G83" t="b">
+      <c r="H83" t="b">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1000</v>
-      </c>
       <c r="M83" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N83" t="n">
         <v>43</v>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
         <v>47</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6027,47 +6442,52 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>DRD2</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
           <t>DRD2_001</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>DRD2 rs1799732</t>
         </is>
       </c>
-      <c r="G84" t="b">
+      <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1000</v>
-      </c>
       <c r="M84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N84" t="n">
         <v>53</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>55</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -6094,47 +6514,52 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>DRD2</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>DRD2_001</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>DRD2 rs1799732</t>
         </is>
       </c>
-      <c r="G85" t="b">
+      <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1000</v>
-      </c>
       <c r="M85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N85" t="n">
         <v>52</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>55.5</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -6161,47 +6586,52 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>DRD3</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>DRD3_001</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>DRD3 rs6280</t>
         </is>
       </c>
-      <c r="G86" t="b">
+      <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1000</v>
-      </c>
       <c r="M86" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N86" t="n">
         <v>58.7</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>62</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>3.299999999999997</v>
       </c>
     </row>
@@ -6228,47 +6658,52 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
+          <t>DRD3</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
           <t>DRD3_001</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>DRD3 rs6280</t>
         </is>
       </c>
-      <c r="G87" t="b">
+      <c r="H87" t="b">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L87" t="n">
-        <v>1000</v>
-      </c>
       <c r="M87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N87" t="n">
         <v>59</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>62.5</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -6295,47 +6730,52 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>HTR1A</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>HTR1A_001</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>HTR1A rs6295</t>
         </is>
       </c>
-      <c r="G88" t="b">
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1000</v>
-      </c>
       <c r="M88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N88" t="n">
         <v>35.5</v>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
         <v>38.5</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6362,47 +6802,52 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>HTR1A</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>HTR1A_001</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>HTR1A rs6295</t>
         </is>
       </c>
-      <c r="G89" t="b">
+      <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1000</v>
-      </c>
       <c r="M89" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N89" t="n">
         <v>34</v>
       </c>
-      <c r="N89" t="n">
+      <c r="O89" t="n">
         <v>38.5</v>
       </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -6429,47 +6874,52 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
+          <t>HTR2C</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
           <t>HTR2C_001</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>HTR2C rs1414334</t>
         </is>
       </c>
-      <c r="G90" t="b">
+      <c r="H90" t="b">
         <v>0</v>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1000</v>
-      </c>
       <c r="M90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N90" t="n">
         <v>39</v>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>42.5</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -6496,47 +6946,52 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>HTR2C</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
           <t>HTR2C_001</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>HTR2C rs1414334</t>
         </is>
       </c>
-      <c r="G91" t="b">
+      <c r="H91" t="b">
         <v>0</v>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>reverse</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1000</v>
-      </c>
       <c r="M91" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N91" t="n">
         <v>38.8</v>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
         <v>42.5</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>3.700000000000003</v>
       </c>
     </row>
@@ -6563,47 +7018,52 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
+          <t>SCN1A</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
           <t>SCN1A_001</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>SCN1A rs3812718</t>
         </is>
       </c>
-      <c r="G92" t="b">
+      <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1000</v>
-      </c>
       <c r="M92" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N92" t="n">
         <v>62.5</v>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>67</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -6630,47 +7090,52 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>SCN1A</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>SCN1A_001</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>SCN1A rs3812718</t>
         </is>
       </c>
-      <c r="G93" t="b">
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1000</v>
-      </c>
       <c r="M93" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N93" t="n">
         <v>63</v>
       </c>
-      <c r="N93" t="n">
+      <c r="O93" t="n">
         <v>68</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6697,47 +7162,52 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>CYP1A2</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
           <t>CYP1A2_001</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>CYP1A2 *1F</t>
         </is>
       </c>
-      <c r="G94" t="b">
+      <c r="H94" t="b">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1000</v>
-      </c>
       <c r="M94" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N94" t="n">
         <v>68</v>
       </c>
-      <c r="N94" t="n">
+      <c r="O94" t="n">
         <v>75</v>
       </c>
-      <c r="O94" t="n">
+      <c r="P94" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6764,47 +7234,52 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>CYP1A2</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
           <t>CYP1A2_001</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>CYP1A2 *1F</t>
         </is>
       </c>
-      <c r="G95" t="b">
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1000</v>
-      </c>
       <c r="M95" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N95" t="n">
         <v>68.5</v>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>75</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -6831,47 +7306,52 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>CYP3A4</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>CYP3A4_001</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>CYP3A4 *18</t>
         </is>
       </c>
-      <c r="G96" t="b">
+      <c r="H96" t="b">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1000</v>
-      </c>
       <c r="M96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N96" t="n">
         <v>34</v>
       </c>
-      <c r="N96" t="n">
+      <c r="O96" t="n">
         <v>39.5</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -6898,47 +7378,52 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>CYP3A4</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>CYP3A4_001</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>CYP3A4 *18</t>
         </is>
       </c>
-      <c r="G97" t="b">
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1000</v>
-      </c>
       <c r="M97" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N97" t="n">
         <v>36.2</v>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
         <v>42.5</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>6.299999999999997</v>
       </c>
     </row>
@@ -6965,47 +7450,52 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>EPHX1</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>EPHX1_001</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>EPHX1 rs2234922</t>
         </is>
       </c>
-      <c r="G98" t="b">
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1000</v>
-      </c>
       <c r="M98" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N98" t="n">
         <v>27</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>33</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7032,47 +7522,52 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>EPHX1</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>EPHX1_001</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>EPHX1 rs2234922</t>
         </is>
       </c>
-      <c r="G99" t="b">
+      <c r="H99" t="b">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1000</v>
-      </c>
       <c r="M99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N99" t="n">
         <v>25</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>33</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7099,47 +7594,52 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
+          <t>EPHX1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
           <t>EPHX1_001</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>EPHX1 rs2234922</t>
         </is>
       </c>
-      <c r="G100" t="b">
+      <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1000</v>
-      </c>
       <c r="M100" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N100" t="n">
         <v>26</v>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>33</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7166,47 +7666,52 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>EPHX1</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>EPHX1_002</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>EPHX1 rs1051740</t>
         </is>
       </c>
-      <c r="G101" t="b">
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1000</v>
-      </c>
       <c r="M101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N101" t="n">
         <v>57</v>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>62</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7233,47 +7738,52 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>EPHX1</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>EPHX1_002</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>EPHX1 rs1051740</t>
         </is>
       </c>
-      <c r="G102" t="b">
+      <c r="H102" t="b">
         <v>1</v>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1000</v>
-      </c>
       <c r="M102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N102" t="n">
         <v>58.5</v>
       </c>
-      <c r="N102" t="n">
+      <c r="O102" t="n">
         <v>63</v>
       </c>
-      <c r="O102" t="n">
+      <c r="P102" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -7300,47 +7810,52 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
+          <t>FKBP5</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
           <t>FKBP5_001</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>FKBP5 rs4713916</t>
         </is>
       </c>
-      <c r="G103" t="b">
+      <c r="H103" t="b">
         <v>1</v>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1000</v>
-      </c>
       <c r="M103" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N103" t="n">
         <v>41</v>
       </c>
-      <c r="N103" t="n">
+      <c r="O103" t="n">
         <v>47</v>
       </c>
-      <c r="O103" t="n">
+      <c r="P103" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7367,47 +7882,52 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>FKBP5</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>FKBP5_001</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>FKBP5 rs4713916</t>
         </is>
       </c>
-      <c r="G104" t="b">
+      <c r="H104" t="b">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1000</v>
-      </c>
       <c r="M104" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N104" t="n">
         <v>40</v>
       </c>
-      <c r="N104" t="n">
+      <c r="O104" t="n">
         <v>45.5</v>
       </c>
-      <c r="O104" t="n">
+      <c r="P104" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -7434,47 +7954,52 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>HTR2A</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>HTR2A_001</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>HTR2A rs7997012</t>
         </is>
       </c>
-      <c r="G105" t="b">
+      <c r="H105" t="b">
         <v>1</v>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1000</v>
-      </c>
       <c r="M105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N105" t="n">
         <v>47.5</v>
       </c>
-      <c r="N105" t="n">
+      <c r="O105" t="n">
         <v>53</v>
       </c>
-      <c r="O105" t="n">
+      <c r="P105" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -7501,47 +8026,52 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>HTR2A</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>HTR2A_001</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>HTR2A rs7997012</t>
         </is>
       </c>
-      <c r="G106" t="b">
+      <c r="H106" t="b">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1000</v>
-      </c>
       <c r="M106" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N106" t="n">
         <v>47</v>
       </c>
-      <c r="N106" t="n">
+      <c r="O106" t="n">
         <v>51.5</v>
       </c>
-      <c r="O106" t="n">
+      <c r="P106" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -7568,47 +8098,52 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>MC4R</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>MC4R_001</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>MC4R rs489693</t>
         </is>
       </c>
-      <c r="G107" t="b">
+      <c r="H107" t="b">
         <v>1</v>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1000</v>
-      </c>
       <c r="M107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N107" t="n">
         <v>76</v>
       </c>
-      <c r="N107" t="n">
+      <c r="O107" t="n">
         <v>83</v>
       </c>
-      <c r="O107" t="n">
+      <c r="P107" t="n">
         <v>7</v>
       </c>
     </row>
@@ -7635,47 +8170,52 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>MC4R</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>MC4R_001</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>MC4R rs489693</t>
         </is>
       </c>
-      <c r="G108" t="b">
+      <c r="H108" t="b">
         <v>1</v>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1000</v>
-      </c>
       <c r="M108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N108" t="n">
         <v>76</v>
       </c>
-      <c r="N108" t="n">
+      <c r="O108" t="n">
         <v>84</v>
       </c>
-      <c r="O108" t="n">
+      <c r="P108" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7702,47 +8242,52 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>MC4R</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>MC4R_001</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>MC4R rs489693</t>
         </is>
       </c>
-      <c r="G109" t="b">
+      <c r="H109" t="b">
         <v>1</v>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1000</v>
-      </c>
       <c r="M109" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N109" t="n">
         <v>76</v>
       </c>
-      <c r="N109" t="n">
+      <c r="O109" t="n">
         <v>84</v>
       </c>
-      <c r="O109" t="n">
+      <c r="P109" t="n">
         <v>8</v>
       </c>
     </row>
@@ -7769,47 +8314,52 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
+          <t>UGT1A4</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
           <t>UGT1A4_001</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>UGT1A4 142T&gt;G</t>
         </is>
       </c>
-      <c r="G110" t="b">
+      <c r="H110" t="b">
         <v>1</v>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1000</v>
-      </c>
       <c r="M110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N110" t="n">
         <v>61</v>
       </c>
-      <c r="N110" t="n">
+      <c r="O110" t="n">
         <v>67</v>
       </c>
-      <c r="O110" t="n">
+      <c r="P110" t="n">
         <v>6</v>
       </c>
     </row>
@@ -7836,47 +8386,52 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>UGT1A4</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>UGT1A4_001</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>UGT1A4 142T&gt;G</t>
         </is>
       </c>
-      <c r="G111" t="b">
+      <c r="H111" t="b">
         <v>1</v>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1000</v>
-      </c>
       <c r="M111" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N111" t="n">
         <v>63.5</v>
       </c>
-      <c r="N111" t="n">
+      <c r="O111" t="n">
         <v>69</v>
       </c>
-      <c r="O111" t="n">
+      <c r="P111" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -7903,47 +8458,52 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>UGT2B15</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>UGT2B15_001</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>UGT2B15 253G&gt;T</t>
         </is>
       </c>
-      <c r="G112" t="b">
+      <c r="H112" t="b">
         <v>1</v>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>wildtype</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1000</v>
-      </c>
       <c r="M112" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N112" t="n">
         <v>51.8</v>
       </c>
-      <c r="N112" t="n">
+      <c r="O112" t="n">
         <v>57</v>
       </c>
-      <c r="O112" t="n">
+      <c r="P112" t="n">
         <v>5.200000000000003</v>
       </c>
     </row>
@@ -7970,47 +8530,52 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>UGT2B15</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>UGT2B15_001</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>UGT2B15 253G&gt;T</t>
         </is>
       </c>
-      <c r="G113" t="b">
+      <c r="H113" t="b">
         <v>1</v>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>forward</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>mutant</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1000</v>
-      </c>
       <c r="M113" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N113" t="n">
         <v>52</v>
       </c>
-      <c r="N113" t="n">
+      <c r="O113" t="n">
         <v>58</v>
       </c>
-      <c r="O113" t="n">
+      <c r="P113" t="n">
         <v>6</v>
       </c>
     </row>
